--- a/2020출석부/Back/documents/afterSchoolSchedule.xlsx
+++ b/2020출석부/Back/documents/afterSchoolSchedule.xlsx
@@ -834,7 +834,7 @@
         <v>43910</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">

--- a/2020출석부/Back/documents/afterSchoolSchedule.xlsx
+++ b/2020출석부/Back/documents/afterSchoolSchedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.101.23.39576"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="afterSchoolSchedule" sheetId="1" r:id="rId1"/>
@@ -1005,16 +1005,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B183"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67:B183"/>
+    <sheetView topLeftCell="A115" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I134" sqref="I134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.000000"/>
+  <sheetFormatPr defaultRowHeight="17.250000"/>
   <cols>
     <col min="1" max="1" width="18.67166731" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.250000">
+    <row r="1" spans="1:2">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.250000">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>43855</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.250000">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>43856</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.250000">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>43857</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.250000">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>43858</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17.250000">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>43859</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17.250000">
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>43860</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17.250000">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>43861</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17.250000">
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>43862</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17.250000">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>43863</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17.250000">
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>43864</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17.250000">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>43865</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17.250000">
+    <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>43866</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17.250000">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>43867</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17.250000">
+    <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>43868</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17.250000">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>43869</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17.250000">
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>43870</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17.250000">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>43871</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17.250000">
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>43872</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17.250000">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>43873</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17.250000">
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>43874</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="17.250000">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>43875</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17.250000">
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>43876</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17.250000">
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>43877</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17.250000">
+    <row r="25" spans="1:2">
       <c r="A25" s="1">
         <v>43878</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="17.250000">
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>43879</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="17.250000">
+    <row r="27" spans="1:2">
       <c r="A27" s="1">
         <v>43880</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17.250000">
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>43881</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17.250000">
+    <row r="29" spans="1:2">
       <c r="A29" s="1">
         <v>43882</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="17.250000">
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>43883</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="17.250000">
+    <row r="31" spans="1:2">
       <c r="A31" s="1">
         <v>43884</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="17.250000">
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>43885</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="17.250000">
+    <row r="33" spans="1:2">
       <c r="A33" s="1">
         <v>43886</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="17.250000">
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>43887</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17.250000">
+    <row r="35" spans="1:2">
       <c r="A35" s="1">
         <v>43888</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="17.250000">
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>43889</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="17.250000">
+    <row r="37" spans="1:2">
       <c r="A37" s="1">
         <v>43890</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="17.250000">
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>43891</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="17.250000">
+    <row r="39" spans="1:2">
       <c r="A39" s="1">
         <v>43892</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="17.250000">
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>43893</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="17.250000">
+    <row r="41" spans="1:2">
       <c r="A41" s="1">
         <v>43894</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="17.250000">
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>43895</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="17.250000">
+    <row r="43" spans="1:2">
       <c r="A43" s="1">
         <v>43896</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="17.250000">
+    <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>43897</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="17.250000">
+    <row r="45" spans="1:2">
       <c r="A45" s="1">
         <v>43898</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="17.250000">
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>43899</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="17.250000">
+    <row r="47" spans="1:2">
       <c r="A47" s="1">
         <v>43900</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="17.250000">
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>43901</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="17.250000">
+    <row r="49" spans="1:2">
       <c r="A49" s="1">
         <v>43902</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="17.250000">
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>43903</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="17.250000">
+    <row r="51" spans="1:2">
       <c r="A51" s="1">
         <v>43904</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="17.250000">
+    <row r="52" spans="1:2">
       <c r="A52" s="1">
         <v>43905</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="17.250000">
+    <row r="53" spans="1:2">
       <c r="A53" s="1">
         <v>43906</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="17.250000">
+    <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>43907</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="17.250000">
+    <row r="55" spans="1:2">
       <c r="A55" s="1">
         <v>43908</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="17.250000">
+    <row r="56" spans="1:2">
       <c r="A56" s="1">
         <v>43909</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="17.250000">
+    <row r="57" spans="1:2">
       <c r="A57" s="1">
         <v>43910</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="17.250000">
+    <row r="58" spans="1:2">
       <c r="A58" s="1">
         <v>43911</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="17.250000">
+    <row r="59" spans="1:2">
       <c r="A59" s="1">
         <v>43912</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="17.250000">
+    <row r="60" spans="1:2">
       <c r="A60" s="1">
         <v>43913</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="17.250000">
+    <row r="61" spans="1:2">
       <c r="A61" s="1">
         <v>43914</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="17.250000">
+    <row r="62" spans="1:2">
       <c r="A62" s="1">
         <v>43915</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="17.250000">
+    <row r="63" spans="1:2">
       <c r="A63" s="1">
         <v>43916</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="17.250000">
+    <row r="64" spans="1:2">
       <c r="A64" s="1">
         <v>43917</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="17.250000">
+    <row r="65" spans="1:2">
       <c r="A65" s="1">
         <v>43918</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="17.250000">
+    <row r="66" spans="1:2">
       <c r="A66" s="1">
         <v>43919</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="17.250000">
+    <row r="67" spans="1:2">
       <c r="A67" s="1">
         <v>43920</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="17.250000">
+    <row r="68" spans="1:2">
       <c r="A68" s="1">
         <v>43921</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="17.250000">
+    <row r="69" spans="1:2">
       <c r="A69" s="1">
         <v>43922</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="17.250000">
+    <row r="70" spans="1:2">
       <c r="A70" s="1">
         <v>43923</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="17.250000">
+    <row r="71" spans="1:2">
       <c r="A71" s="1">
         <v>43924</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="17.250000">
+    <row r="72" spans="1:2">
       <c r="A72" s="1">
         <v>43925</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="17.250000">
+    <row r="73" spans="1:2">
       <c r="A73" s="1">
         <v>43926</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="17.250000">
+    <row r="74" spans="1:2">
       <c r="A74" s="1">
         <v>43927</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="17.250000">
+    <row r="75" spans="1:2">
       <c r="A75" s="1">
         <v>43928</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="17.250000">
+    <row r="76" spans="1:2">
       <c r="A76" s="1">
         <v>43929</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="17.250000">
+    <row r="77" spans="1:2">
       <c r="A77" s="1">
         <v>43930</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="17.250000">
+    <row r="78" spans="1:2">
       <c r="A78" s="1">
         <v>43931</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="17.250000">
+    <row r="79" spans="1:2">
       <c r="A79" s="1">
         <v>43932</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="17.250000">
+    <row r="80" spans="1:2">
       <c r="A80" s="1">
         <v>43933</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="17.250000">
+    <row r="81" spans="1:2">
       <c r="A81" s="1">
         <v>43934</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="17.250000">
+    <row r="82" spans="1:2">
       <c r="A82" s="1">
         <v>43935</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="17.250000">
+    <row r="83" spans="1:2">
       <c r="A83" s="1">
         <v>43936</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="17.250000">
+    <row r="84" spans="1:2">
       <c r="A84" s="1">
         <v>43937</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="17.250000">
+    <row r="85" spans="1:2">
       <c r="A85" s="1">
         <v>43938</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="17.250000">
+    <row r="86" spans="1:2">
       <c r="A86" s="1">
         <v>43939</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="17.250000">
+    <row r="87" spans="1:2">
       <c r="A87" s="1">
         <v>43940</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="17.250000">
+    <row r="88" spans="1:2">
       <c r="A88" s="1">
         <v>43941</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="17.250000">
+    <row r="89" spans="1:2">
       <c r="A89" s="1">
         <v>43942</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="17.250000">
+    <row r="90" spans="1:2">
       <c r="A90" s="1">
         <v>43943</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="17.250000">
+    <row r="91" spans="1:2">
       <c r="A91" s="1">
         <v>43944</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="17.250000">
+    <row r="92" spans="1:2">
       <c r="A92" s="1">
         <v>43945</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="17.250000">
+    <row r="93" spans="1:2">
       <c r="A93" s="1">
         <v>43946</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="17.250000">
+    <row r="94" spans="1:2">
       <c r="A94" s="1">
         <v>43947</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="17.250000">
+    <row r="95" spans="1:2">
       <c r="A95" s="1">
         <v>43948</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="17.250000">
+    <row r="96" spans="1:2">
       <c r="A96" s="1">
         <v>43949</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="17.250000">
+    <row r="97" spans="1:2">
       <c r="A97" s="1">
         <v>43950</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="17.250000">
+    <row r="98" spans="1:2">
       <c r="A98" s="1">
         <v>43951</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="17.250000">
+    <row r="99" spans="1:2">
       <c r="A99" s="1">
         <v>43952</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="17.250000">
+    <row r="100" spans="1:2">
       <c r="A100" s="1">
         <v>43953</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="17.250000">
+    <row r="101" spans="1:2">
       <c r="A101" s="1">
         <v>43954</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="17.250000">
+    <row r="102" spans="1:2">
       <c r="A102" s="1">
         <v>43955</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="17.250000">
+    <row r="103" spans="1:2">
       <c r="A103" s="1">
         <v>43956</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="17.250000">
+    <row r="104" spans="1:2">
       <c r="A104" s="1">
         <v>43957</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="17.250000">
+    <row r="105" spans="1:2">
       <c r="A105" s="1">
         <v>43958</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="17.250000">
+    <row r="106" spans="1:2">
       <c r="A106" s="1">
         <v>43959</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="17.250000">
+    <row r="107" spans="1:2">
       <c r="A107" s="1">
         <v>43960</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="17.250000">
+    <row r="108" spans="1:2">
       <c r="A108" s="1">
         <v>43961</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="17.250000">
+    <row r="109" spans="1:2">
       <c r="A109" s="1">
         <v>43962</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="17.250000">
+    <row r="110" spans="1:2">
       <c r="A110" s="1">
         <v>43963</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="17.250000">
+    <row r="111" spans="1:2">
       <c r="A111" s="1">
         <v>43964</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="17.250000">
+    <row r="112" spans="1:2">
       <c r="A112" s="1">
         <v>43965</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="17.250000">
+    <row r="113" spans="1:2">
       <c r="A113" s="1">
         <v>43966</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="17.250000">
+    <row r="114" spans="1:2">
       <c r="A114" s="1">
         <v>43967</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="17.250000">
+    <row r="115" spans="1:2">
       <c r="A115" s="1">
         <v>43968</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="17.250000">
+    <row r="116" spans="1:2">
       <c r="A116" s="1">
         <v>43969</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="17.250000">
+    <row r="117" spans="1:2">
       <c r="A117" s="1">
         <v>43970</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="17.250000">
+    <row r="118" spans="1:2">
       <c r="A118" s="1">
         <v>43971</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="17.250000">
+    <row r="119" spans="1:2">
       <c r="A119" s="1">
         <v>43972</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="17.250000">
+    <row r="120" spans="1:2">
       <c r="A120" s="1">
         <v>43973</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="17.250000">
+    <row r="121" spans="1:2">
       <c r="A121" s="1">
         <v>43974</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="17.250000">
+    <row r="122" spans="1:2">
       <c r="A122" s="1">
         <v>43975</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="17.250000">
+    <row r="123" spans="1:2">
       <c r="A123" s="1">
         <v>43976</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="17.250000">
+    <row r="124" spans="1:2">
       <c r="A124" s="1">
         <v>43977</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="17.250000">
+    <row r="125" spans="1:2">
       <c r="A125" s="1">
         <v>43978</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="17.250000">
+    <row r="126" spans="1:2">
       <c r="A126" s="1">
         <v>43979</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="17.250000">
+    <row r="127" spans="1:2">
       <c r="A127" s="1">
         <v>43980</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="17.250000">
+    <row r="128" spans="1:2">
       <c r="A128" s="1">
         <v>43981</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="17.250000">
+    <row r="129" spans="1:2">
       <c r="A129" s="1">
         <v>43982</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="17.250000">
+    <row r="130" spans="1:2">
       <c r="A130" s="1">
         <v>43983</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="17.250000">
+    <row r="131" spans="1:2">
       <c r="A131" s="1">
         <v>43984</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="17.250000">
+    <row r="132" spans="1:2">
       <c r="A132" s="1">
         <v>43985</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="17.250000">
+    <row r="133" spans="1:2">
       <c r="A133" s="1">
         <v>43986</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="17.250000">
+    <row r="134" spans="1:2">
       <c r="A134" s="1">
         <v>43987</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="17.250000">
+    <row r="135" spans="1:2">
       <c r="A135" s="1">
         <v>43988</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="17.250000">
+    <row r="136" spans="1:2">
       <c r="A136" s="1">
         <v>43989</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="17.250000">
+    <row r="137" spans="1:2">
       <c r="A137" s="1">
         <v>43990</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="17.250000">
+    <row r="138" spans="1:2">
       <c r="A138" s="1">
         <v>43991</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="17.250000">
+    <row r="139" spans="1:2">
       <c r="A139" s="1">
         <v>43992</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="17.250000">
+    <row r="140" spans="1:2">
       <c r="A140" s="1">
         <v>43993</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="17.250000">
+    <row r="141" spans="1:2">
       <c r="A141" s="1">
         <v>43994</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="17.250000">
+    <row r="142" spans="1:2">
       <c r="A142" s="1">
         <v>43995</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="17.250000">
+    <row r="143" spans="1:2">
       <c r="A143" s="1">
         <v>43996</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="17.250000">
+    <row r="144" spans="1:2">
       <c r="A144" s="1">
         <v>43997</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="17.250000">
+    <row r="145" spans="1:2">
       <c r="A145" s="1">
         <v>43998</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="17.250000">
+    <row r="146" spans="1:2">
       <c r="A146" s="1">
         <v>43999</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="17.250000">
+    <row r="147" spans="1:2">
       <c r="A147" s="1">
         <v>44000</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="17.250000">
+    <row r="148" spans="1:2">
       <c r="A148" s="1">
         <v>44001</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="17.250000">
+    <row r="149" spans="1:2">
       <c r="A149" s="1">
         <v>44002</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="17.250000">
+    <row r="150" spans="1:2">
       <c r="A150" s="1">
         <v>44003</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="17.250000">
+    <row r="151" spans="1:2">
       <c r="A151" s="1">
         <v>44004</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="17.250000">
+    <row r="152" spans="1:2">
       <c r="A152" s="1">
         <v>44005</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="17.250000">
+    <row r="153" spans="1:2">
       <c r="A153" s="1">
         <v>44006</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="17.250000">
+    <row r="154" spans="1:2">
       <c r="A154" s="1">
         <v>44007</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="17.250000">
+    <row r="155" spans="1:2">
       <c r="A155" s="1">
         <v>44008</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="17.250000">
+    <row r="156" spans="1:2">
       <c r="A156" s="1">
         <v>44009</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="17.250000">
+    <row r="157" spans="1:2">
       <c r="A157" s="1">
         <v>44010</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="17.250000">
+    <row r="158" spans="1:2">
       <c r="A158" s="1">
         <v>44011</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="17.250000">
+    <row r="159" spans="1:2">
       <c r="A159" s="1">
         <v>44012</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="17.250000">
+    <row r="160" spans="1:2">
       <c r="A160" s="1">
         <v>44013</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="17.250000">
+    <row r="161" spans="1:2">
       <c r="A161" s="1">
         <v>44014</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="17.250000">
+    <row r="162" spans="1:2">
       <c r="A162" s="1">
         <v>44015</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="17.250000">
+    <row r="163" spans="1:2">
       <c r="A163" s="1">
         <v>44016</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="17.250000">
+    <row r="164" spans="1:2">
       <c r="A164" s="1">
         <v>44017</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="17.250000">
+    <row r="165" spans="1:2">
       <c r="A165" s="1">
         <v>44018</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="17.250000">
+    <row r="166" spans="1:2">
       <c r="A166" s="1">
         <v>44019</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="17.250000">
+    <row r="167" spans="1:2">
       <c r="A167" s="1">
         <v>44020</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="17.250000">
+    <row r="168" spans="1:2">
       <c r="A168" s="1">
         <v>44021</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="17.250000">
+    <row r="169" spans="1:2">
       <c r="A169" s="1">
         <v>44022</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="17.250000">
+    <row r="170" spans="1:2">
       <c r="A170" s="1">
         <v>44023</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="17.250000">
+    <row r="171" spans="1:2">
       <c r="A171" s="1">
         <v>44024</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="17.250000">
+    <row r="172" spans="1:2">
       <c r="A172" s="1">
         <v>44025</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="17.250000">
+    <row r="173" spans="1:2">
       <c r="A173" s="1">
         <v>44026</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="17.250000">
+    <row r="174" spans="1:2">
       <c r="A174" s="1">
         <v>44027</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="17.250000">
+    <row r="175" spans="1:2">
       <c r="A175" s="1">
         <v>44028</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="17.250000">
+    <row r="176" spans="1:2">
       <c r="A176" s="1">
         <v>44029</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="17.250000">
+    <row r="177" spans="1:2">
       <c r="A177" s="1">
         <v>44030</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="17.250000">
+    <row r="178" spans="1:2">
       <c r="A178" s="1">
         <v>44031</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="17.250000">
+    <row r="179" spans="1:2">
       <c r="A179" s="1">
         <v>44032</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="17.250000">
+    <row r="180" spans="1:2">
       <c r="A180" s="1">
         <v>44033</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="17.250000">
+    <row r="181" spans="1:2">
       <c r="A181" s="1">
         <v>44034</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="17.250000">
+    <row r="182" spans="1:2">
       <c r="A182" s="1">
         <v>44035</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="17.250000">
+    <row r="183" spans="1:2">
       <c r="A183" s="1">
         <v>44036</v>
       </c>
